--- a/freeCodecamp SciComputing-with-Python.xlsx
+++ b/freeCodecamp SciComputing-with-Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abela\Documents\MACHINE_LEARNING_EDUCATION\FREE CODE CAMP\Scientific-Computing-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20677909-9FFF-4CDD-BC65-7032DE82FCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07C6D1A-586C-454F-9BC5-8F799DDB99F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{DE160008-9358-4735-948B-056DFE8C4F69}"/>
   </bookViews>
@@ -293,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,26 +315,16 @@
     <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -342,6 +332,9 @@
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,8 +653,8 @@
   <dimension ref="B2:G65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +662,7 @@
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="50.85546875" customWidth="1"/>
     <col min="3" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="11"/>
+    <col min="6" max="6" width="11.42578125" style="9"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -677,16 +670,16 @@
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -697,992 +690,991 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="11">
         <v>0.52152777777777781</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="11">
         <f>C3</f>
         <v>0.52152777777777781</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <f>(C3+D3)/60</f>
         <v>1.7384259259259259E-2</v>
       </c>
       <c r="F3" s="8">
         <v>45135</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>0.51111111111111118</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <f t="shared" ref="D4:D57" si="0">C4</f>
         <v>0.51111111111111118</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <f t="shared" ref="E4:E57" si="1">(C4+D4)/60</f>
         <v>1.7037037037037038E-2</v>
       </c>
       <c r="F4" s="8">
         <v>45135</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>0.32569444444444445</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="11">
         <f t="shared" si="0"/>
         <v>0.32569444444444445</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <f t="shared" si="1"/>
         <v>1.0856481481481483E-2</v>
       </c>
       <c r="F5" s="8">
         <v>45135</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>0.53125</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
         <v>0.53125</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <f t="shared" si="1"/>
         <v>1.7708333333333333E-2</v>
       </c>
       <c r="F6" s="8">
         <v>45135</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>0.40347222222222223</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>0.40347222222222223</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <f t="shared" si="1"/>
         <v>1.3449074074074075E-2</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>45136</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>0.82847222222222217</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>0.82847222222222217</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <f t="shared" si="1"/>
         <v>2.7615740740740739E-2</v>
       </c>
-      <c r="F8" s="11">
-        <v>45136</v>
-      </c>
-      <c r="G8" s="10"/>
+      <c r="F8" s="8">
+        <v>45139</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>0.5625</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <f t="shared" si="1"/>
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="F9" s="11">
-        <v>45136</v>
-      </c>
-      <c r="G9" s="10"/>
+      <c r="F9" s="8">
+        <v>45139</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>0.57777777777777783</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>0.57777777777777783</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" si="1"/>
         <v>1.9259259259259261E-2</v>
       </c>
-      <c r="F10" s="11">
-        <v>45136</v>
-      </c>
-      <c r="G10" s="10"/>
+      <c r="F10" s="8">
+        <v>45139</v>
+      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>0.4375</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <f t="shared" si="1"/>
         <v>1.4583333333333334E-2</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>45137</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>0.52430555555555558</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
         <v>0.52430555555555558</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <f t="shared" si="1"/>
         <v>1.7476851851851851E-2</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <v>45137</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>0.41597222222222219</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <f t="shared" si="0"/>
         <v>0.41597222222222219</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <f t="shared" si="1"/>
         <v>1.3865740740740739E-2</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>45137</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <v>0.28611111111111115</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <f t="shared" si="0"/>
         <v>0.28611111111111115</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <f t="shared" si="1"/>
         <v>9.5370370370370383E-3</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>45137</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <v>0.36319444444444443</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <f t="shared" si="0"/>
         <v>0.36319444444444443</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <f t="shared" si="1"/>
         <v>1.210648148148148E-2</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>45137</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>0.78333333333333333</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <f t="shared" si="0"/>
         <v>0.78333333333333333</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <f t="shared" si="1"/>
         <v>2.6111111111111109E-2</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>45138</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <v>0.4465277777777778</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <f t="shared" si="0"/>
         <v>0.4465277777777778</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <f t="shared" si="1"/>
         <v>1.488425925925926E-2</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <v>45138</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="10">
         <v>0.78055555555555556</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <f t="shared" si="0"/>
         <v>0.78055555555555556</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <f t="shared" si="1"/>
         <v>2.6018518518518517E-2</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <v>45138</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <v>0.3298611111111111</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <f t="shared" si="0"/>
         <v>0.3298611111111111</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <f t="shared" si="1"/>
         <v>1.0995370370370371E-2</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <v>45139</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="10">
         <v>0.57430555555555551</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <f t="shared" si="0"/>
         <v>0.57430555555555551</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <f t="shared" si="1"/>
         <v>1.9143518518518518E-2</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="9">
         <v>45139</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <v>0.45624999999999999</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <f t="shared" si="0"/>
         <v>0.45624999999999999</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <f t="shared" si="1"/>
         <v>1.5208333333333332E-2</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="9">
         <v>45139</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <v>0.40069444444444446</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <f t="shared" si="0"/>
         <v>0.40069444444444446</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <f t="shared" si="1"/>
         <v>1.3356481481481481E-2</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <v>45139</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <v>0.3354166666666667</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <f t="shared" si="0"/>
         <v>0.3354166666666667</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
         <f t="shared" si="1"/>
         <v>1.1180555555555556E-2</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="9">
         <v>45139</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="10">
         <v>0.33611111111111108</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="10">
         <f t="shared" si="0"/>
         <v>0.33611111111111108</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
         <f t="shared" si="1"/>
         <v>1.1203703703703704E-2</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <v>45140</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="10">
         <v>0.39374999999999999</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="10">
         <f t="shared" si="0"/>
         <v>0.39374999999999999</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
         <f t="shared" si="1"/>
         <v>1.3125E-2</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="9">
         <v>45140</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="10">
         <v>0.49652777777777773</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <f t="shared" si="0"/>
         <v>0.49652777777777773</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <f t="shared" si="1"/>
         <v>1.6550925925925924E-2</v>
       </c>
-      <c r="G26" s="10"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="10">
         <v>0.40833333333333338</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="10">
         <f t="shared" si="0"/>
         <v>0.40833333333333338</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
         <f t="shared" si="1"/>
         <v>1.3611111111111112E-2</v>
       </c>
-      <c r="G27" s="10"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <v>0.51666666666666672</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <f t="shared" si="0"/>
         <v>0.51666666666666672</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <f t="shared" si="1"/>
         <v>1.7222222222222226E-2</v>
       </c>
-      <c r="G28" s="10"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="10">
         <v>0.44930555555555557</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <f t="shared" si="0"/>
         <v>0.44930555555555557</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="10">
         <f t="shared" si="1"/>
         <v>1.4976851851851852E-2</v>
       </c>
-      <c r="G29" s="10"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="10">
         <v>0.3659722222222222</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="10">
         <f t="shared" si="0"/>
         <v>0.3659722222222222</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="10">
         <f t="shared" si="1"/>
         <v>1.2199074074074074E-2</v>
       </c>
-      <c r="G30" s="10"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="10">
         <v>0.36944444444444446</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="10">
         <f t="shared" si="0"/>
         <v>0.36944444444444446</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="10">
         <f t="shared" si="1"/>
         <v>1.2314814814814815E-2</v>
       </c>
-      <c r="G31" s="10"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <v>0.32222222222222224</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="10">
         <f t="shared" si="0"/>
         <v>0.32222222222222224</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="10">
         <f t="shared" si="1"/>
         <v>1.0740740740740742E-2</v>
       </c>
-      <c r="G32" s="10"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="10">
         <v>0.39374999999999999</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="10">
         <f t="shared" si="0"/>
         <v>0.39374999999999999</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="10">
         <f t="shared" si="1"/>
         <v>1.3125E-2</v>
       </c>
-      <c r="G33" s="10"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="10">
         <v>0.19166666666666665</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="10">
         <f t="shared" si="0"/>
         <v>0.19166666666666665</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="10">
         <f t="shared" si="1"/>
         <v>6.3888888888888884E-3</v>
       </c>
-      <c r="G34" s="10"/>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="10">
         <v>0.46875</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="10">
         <f t="shared" si="0"/>
         <v>0.46875</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="10">
         <f t="shared" si="1"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="G35" s="10"/>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="10">
         <v>0.2298611111111111</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="10">
         <f t="shared" si="0"/>
         <v>0.2298611111111111</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="10">
         <f t="shared" si="1"/>
         <v>7.6620370370370366E-3</v>
       </c>
-      <c r="G36" s="10"/>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
+      <c r="B37" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="10">
         <v>0.1173611111111111</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="10">
         <f t="shared" si="0"/>
         <v>0.1173611111111111</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="10">
         <f t="shared" si="1"/>
         <v>3.9120370370370368E-3</v>
       </c>
-      <c r="G37" s="10"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="10">
         <v>0.23819444444444446</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="10">
         <f t="shared" si="0"/>
         <v>0.23819444444444446</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="10">
         <f t="shared" si="1"/>
         <v>7.9398148148148145E-3</v>
       </c>
-      <c r="G38" s="10"/>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="10">
         <v>0.58888888888888891</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="10">
         <f t="shared" si="0"/>
         <v>0.58888888888888891</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="10">
         <f t="shared" si="1"/>
         <v>1.9629629629629629E-2</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="10">
         <v>0.27013888888888887</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="10">
         <f t="shared" si="0"/>
         <v>0.27013888888888887</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="10">
         <f t="shared" si="1"/>
         <v>9.0046296296296298E-3</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
+      <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="10">
         <v>8.4722222222222213E-2</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="10">
         <f t="shared" si="0"/>
         <v>8.4722222222222213E-2</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="10">
         <f t="shared" si="1"/>
         <v>2.8240740740740739E-3</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="10">
         <v>0.2951388888888889</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="10">
         <f t="shared" si="0"/>
         <v>0.2951388888888889</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="10">
         <f t="shared" si="1"/>
         <v>9.8379629629629633E-3</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
+      <c r="B43" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="10">
         <v>0.42499999999999999</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="10">
         <f t="shared" si="0"/>
         <v>0.42499999999999999</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="10">
         <f t="shared" si="1"/>
         <v>1.4166666666666666E-2</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
+      <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="10">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="10">
         <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="10">
         <f t="shared" si="1"/>
         <v>1.4814814814814814E-2</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="9" t="s">
+      <c r="B45" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="10">
         <v>0.34652777777777777</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="10">
         <f t="shared" si="0"/>
         <v>0.34652777777777777</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="10">
         <f t="shared" si="1"/>
         <v>1.1550925925925926E-2</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
+      <c r="B46" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="10">
         <v>0.26805555555555555</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="10">
         <f t="shared" si="0"/>
         <v>0.26805555555555555</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="10">
         <f t="shared" si="1"/>
         <v>8.9351851851851849E-3</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
+      <c r="B47" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="10">
         <v>0.31805555555555554</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="10">
         <f t="shared" si="0"/>
         <v>0.31805555555555554</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="10">
         <f t="shared" si="1"/>
         <v>1.0601851851851852E-2</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
+      <c r="B48" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="10">
         <v>0.65347222222222223</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="10">
         <f t="shared" si="0"/>
         <v>0.65347222222222223</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="10">
         <f t="shared" si="1"/>
         <v>2.1782407407407407E-2</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="9" t="s">
+      <c r="B49" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="10">
         <v>0.42152777777777778</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="10">
         <f t="shared" si="0"/>
         <v>0.42152777777777778</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="10">
         <f t="shared" si="1"/>
         <v>1.4050925925925927E-2</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
+      <c r="B50" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="10">
         <v>0.36388888888888887</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="10">
         <f t="shared" si="0"/>
         <v>0.36388888888888887</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="10">
         <f t="shared" si="1"/>
         <v>1.2129629629629629E-2</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
+      <c r="B51" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="10">
         <v>0.17013888888888887</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="10">
         <f t="shared" si="0"/>
         <v>0.17013888888888887</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="10">
         <f t="shared" si="1"/>
         <v>5.6712962962962958E-3</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="9" t="s">
+      <c r="B52" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="10">
         <v>0.51666666666666672</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="10">
         <f t="shared" si="0"/>
         <v>0.51666666666666672</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="10">
         <f t="shared" si="1"/>
         <v>1.7222222222222226E-2</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
+      <c r="B53" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="10">
         <v>0.4375</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="10">
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="10">
         <f t="shared" si="1"/>
         <v>1.4583333333333334E-2</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
+      <c r="B54" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="10">
         <v>0.55138888888888882</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="10">
         <f t="shared" si="0"/>
         <v>0.55138888888888882</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="10">
         <f t="shared" si="1"/>
         <v>1.8379629629629628E-2</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
+      <c r="B55" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="10">
         <v>0.27986111111111112</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="10">
         <f t="shared" si="0"/>
         <v>0.27986111111111112</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="10">
         <f t="shared" si="1"/>
         <v>9.3287037037037036E-3</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="9" t="s">
+      <c r="B56" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="10">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56" s="10">
         <f t="shared" si="0"/>
         <v>0.47569444444444442</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="10">
         <f t="shared" si="1"/>
         <v>1.5856481481481482E-2</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
+      <c r="B57" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="10">
         <v>0.29097222222222224</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="10">
         <f t="shared" si="0"/>
         <v>0.29097222222222224</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="10">
         <f t="shared" si="1"/>
         <v>9.6990740740740752E-3</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="9"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16">
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10">
         <f>SUM(E3:E57)</f>
         <v>0.76319444444444429</v>
       </c>
@@ -1696,10 +1688,10 @@
       <c r="B61" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="14">
         <v>25</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="10">
         <f t="shared" ref="E61:E65" si="2">(C61+D61)/60</f>
         <v>0.41666666666666669</v>
       </c>
@@ -1708,10 +1700,10 @@
       <c r="B62" t="s">
         <v>62</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="14">
         <v>25</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="10">
         <f t="shared" si="2"/>
         <v>0.41666666666666669</v>
       </c>
@@ -1720,10 +1712,10 @@
       <c r="B63" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="14">
         <v>25</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63" s="10">
         <f t="shared" si="2"/>
         <v>0.41666666666666669</v>
       </c>
@@ -1732,10 +1724,10 @@
       <c r="B64" t="s">
         <v>64</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="14">
         <v>25</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="10">
         <f t="shared" si="2"/>
         <v>0.41666666666666669</v>
       </c>
@@ -1744,10 +1736,10 @@
       <c r="B65" t="s">
         <v>65</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D65" s="14">
         <v>25</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="10">
         <f t="shared" si="2"/>
         <v>0.41666666666666669</v>
       </c>

--- a/freeCodecamp SciComputing-with-Python.xlsx
+++ b/freeCodecamp SciComputing-with-Python.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abela\Documents\MACHINE_LEARNING_EDUCATION\FREE CODE CAMP\Scientific-Computing-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07C6D1A-586C-454F-9BC5-8F799DDB99F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1C5568-4461-40CB-8DA7-C53C7700FEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{DE160008-9358-4735-948B-056DFE8C4F69}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20370" windowHeight="10770" xr2:uid="{DE160008-9358-4735-948B-056DFE8C4F69}"/>
   </bookViews>
   <sheets>
     <sheet name="Curriculum" sheetId="1" r:id="rId1"/>
@@ -654,7 +654,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +862,7 @@
         <v>1.4583333333333334E-2</v>
       </c>
       <c r="F11" s="9">
-        <v>45137</v>
+        <v>45141</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -882,7 +882,7 @@
         <v>1.7476851851851851E-2</v>
       </c>
       <c r="F12" s="9">
-        <v>45137</v>
+        <v>45141</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -902,7 +902,7 @@
         <v>1.3865740740740739E-2</v>
       </c>
       <c r="F13" s="9">
-        <v>45137</v>
+        <v>45141</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -922,7 +922,7 @@
         <v>9.5370370370370383E-3</v>
       </c>
       <c r="F14" s="9">
-        <v>45137</v>
+        <v>45141</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -942,7 +942,7 @@
         <v>1.210648148148148E-2</v>
       </c>
       <c r="F15" s="9">
-        <v>45137</v>
+        <v>45141</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -962,7 +962,7 @@
         <v>2.6111111111111109E-2</v>
       </c>
       <c r="F16" s="9">
-        <v>45138</v>
+        <v>45141</v>
       </c>
       <c r="G16" s="1"/>
     </row>

--- a/freeCodecamp SciComputing-with-Python.xlsx
+++ b/freeCodecamp SciComputing-with-Python.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abela\Documents\MACHINE_LEARNING_EDUCATION\FREE CODE CAMP\Scientific-Computing-with-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1C5568-4461-40CB-8DA7-C53C7700FEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF46612-148D-45A4-BD66-8197D90DCCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="20370" windowHeight="10770" xr2:uid="{DE160008-9358-4735-948B-056DFE8C4F69}"/>
   </bookViews>
@@ -653,8 +653,8 @@
   <dimension ref="B2:G65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,262 +847,262 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <v>0.4375</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="11">
         <f t="shared" si="1"/>
         <v>1.4583333333333334E-2</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>45141</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="11">
         <v>0.52430555555555558</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <f t="shared" si="0"/>
         <v>0.52430555555555558</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="11">
         <f t="shared" si="1"/>
         <v>1.7476851851851851E-2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>45141</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="11">
         <v>0.41597222222222219</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
         <f t="shared" si="0"/>
         <v>0.41597222222222219</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="11">
         <f t="shared" si="1"/>
         <v>1.3865740740740739E-2</v>
       </c>
-      <c r="F13" s="9">
-        <v>45141</v>
+      <c r="F13" s="8">
+        <v>45142</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="11">
         <v>0.28611111111111115</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <f t="shared" si="0"/>
         <v>0.28611111111111115</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="11">
         <f t="shared" si="1"/>
         <v>9.5370370370370383E-3</v>
       </c>
-      <c r="F14" s="9">
-        <v>45141</v>
+      <c r="F14" s="8">
+        <v>45142</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="11">
         <v>0.36319444444444443</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="11">
         <f t="shared" si="0"/>
         <v>0.36319444444444443</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="11">
         <f t="shared" si="1"/>
         <v>1.210648148148148E-2</v>
       </c>
-      <c r="F15" s="9">
-        <v>45141</v>
+      <c r="F15" s="8">
+        <v>45142</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="11">
         <v>0.78333333333333333</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <f t="shared" si="0"/>
         <v>0.78333333333333333</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <f t="shared" si="1"/>
         <v>2.6111111111111109E-2</v>
       </c>
-      <c r="F16" s="9">
-        <v>45141</v>
+      <c r="F16" s="8">
+        <v>45142</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="11">
         <v>0.4465277777777778</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="11">
         <f t="shared" si="0"/>
         <v>0.4465277777777778</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="11">
         <f t="shared" si="1"/>
         <v>1.488425925925926E-2</v>
       </c>
-      <c r="F17" s="9">
-        <v>45138</v>
+      <c r="F17" s="8">
+        <v>45162</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="11">
         <v>0.78055555555555556</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="11">
         <f t="shared" si="0"/>
         <v>0.78055555555555556</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="11">
         <f t="shared" si="1"/>
         <v>2.6018518518518517E-2</v>
       </c>
-      <c r="F18" s="9">
-        <v>45138</v>
+      <c r="F18" s="8">
+        <v>45163</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="11">
         <v>0.3298611111111111</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="11">
         <f t="shared" si="0"/>
         <v>0.3298611111111111</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="11">
         <f t="shared" si="1"/>
         <v>1.0995370370370371E-2</v>
       </c>
-      <c r="F19" s="9">
-        <v>45139</v>
+      <c r="F19" s="8">
+        <v>45180</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="11">
         <v>0.57430555555555551</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="11">
         <f t="shared" si="0"/>
         <v>0.57430555555555551</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="11">
         <f t="shared" si="1"/>
         <v>1.9143518518518518E-2</v>
       </c>
-      <c r="F20" s="9">
-        <v>45139</v>
+      <c r="F20" s="8">
+        <v>45180</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="11">
         <v>0.45624999999999999</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="11">
         <f t="shared" si="0"/>
         <v>0.45624999999999999</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="11">
         <f t="shared" si="1"/>
         <v>1.5208333333333332E-2</v>
       </c>
-      <c r="F21" s="9">
-        <v>45139</v>
+      <c r="F21" s="8">
+        <v>45180</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="11">
         <v>0.40069444444444446</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="11">
         <f t="shared" si="0"/>
         <v>0.40069444444444446</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="11">
         <f t="shared" si="1"/>
         <v>1.3356481481481481E-2</v>
       </c>
-      <c r="F22" s="9">
-        <v>45139</v>
+      <c r="F22" s="8">
+        <v>45180</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="11">
         <v>0.3354166666666667</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="11">
         <f t="shared" si="0"/>
         <v>0.3354166666666667</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="11">
         <f t="shared" si="1"/>
         <v>1.1180555555555556E-2</v>
       </c>
-      <c r="F23" s="9">
-        <v>45139</v>
+      <c r="F23" s="8">
+        <v>45180</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1121,9 +1121,6 @@
         <f t="shared" si="1"/>
         <v>1.1203703703703704E-2</v>
       </c>
-      <c r="F24" s="9">
-        <v>45140</v>
-      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -1140,9 +1137,6 @@
       <c r="E25" s="10">
         <f t="shared" si="1"/>
         <v>1.3125E-2</v>
-      </c>
-      <c r="F25" s="9">
-        <v>45140</v>
       </c>
       <c r="G25" s="1"/>
     </row>
